--- a/data-raw-2/solo_fms.xlsx
+++ b/data-raw-2/solo_fms.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Dropbox\PC Alex\2019\Projetos\Lumini\Dados para piloto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Documents\1-ODN\FMS\data-raw-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58083B68-04E6-4549-A89D-E9463FB92FFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9650" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -242,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,1736 +360,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$M$2:$M$299</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="298"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.34</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F856-412A-952D-32A5ADACD6AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="983543135"/>
-        <c:axId val="983543551"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="983543135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="983543551"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="983543551"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="983543135"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2353,49 +624,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="16.7265625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="9" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="11.1796875" style="9" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" style="9" customWidth="1"/>
-    <col min="23" max="23" width="12.26953125" style="9" customWidth="1"/>
-    <col min="24" max="24" width="11.1796875" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.81640625" style="9" customWidth="1"/>
-    <col min="26" max="26" width="12.1796875" style="9" customWidth="1"/>
-    <col min="27" max="27" width="12.54296875" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.81640625" style="9" customWidth="1"/>
-    <col min="29" max="30" width="10.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="2"/>
+    <col min="18" max="18" width="11.140625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="9" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="9" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" style="9" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="9" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="9" customWidth="1"/>
+    <col min="29" max="30" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2671,7 +942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2763,7 +1034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2855,7 +1126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -2947,7 +1218,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -3039,7 +1310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3131,7 +1402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3223,7 +1494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -3315,7 +1586,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3407,7 +1678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -3499,7 +1770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -3591,7 +1862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3683,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -3775,7 +2046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -3867,7 +2138,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -3959,7 +2230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -4051,7 +2322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -4143,7 +2414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4235,7 +2506,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -4327,7 +2598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -4419,7 +2690,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -4511,7 +2782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -4603,7 +2874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -4695,7 +2966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -4787,7 +3058,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4879,7 +3150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -4971,7 +3242,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -5061,7 +3332,7 @@
       </c>
       <c r="AD29" s="6"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -5153,7 +3424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -5245,7 +3516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -5337,7 +3608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -5429,7 +3700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -5521,7 +3792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -5613,7 +3884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -5705,7 +3976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -5797,7 +4068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -5889,7 +4160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -5981,7 +4252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -6073,7 +4344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -6165,7 +4436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -6257,7 +4528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -6349,7 +4620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -6441,7 +4712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -6533,7 +4804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -6625,7 +4896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -6717,7 +4988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -6809,7 +5080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -6901,7 +5172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -6993,7 +5264,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
@@ -7083,7 +5354,7 @@
       </c>
       <c r="AD51" s="6"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
@@ -7175,7 +5446,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
@@ -7267,7 +5538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
@@ -7359,7 +5630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
@@ -7451,7 +5722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
@@ -7543,7 +5814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
@@ -7635,7 +5906,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>42</v>
       </c>
@@ -7727,7 +5998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
@@ -7819,7 +6090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>43</v>
       </c>
@@ -7911,7 +6182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
@@ -8003,7 +6274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
@@ -8095,7 +6366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>44</v>
       </c>
@@ -8187,7 +6458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
@@ -8279,7 +6550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>51</v>
       </c>
@@ -8371,7 +6642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>45</v>
       </c>
@@ -8463,7 +6734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>45</v>
       </c>
@@ -8555,7 +6826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -8647,7 +6918,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -8739,7 +7010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
@@ -8831,7 +7102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
@@ -8923,7 +7194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>41</v>
       </c>
@@ -9015,7 +7286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
@@ -9107,7 +7378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>42</v>
       </c>
@@ -9199,7 +7470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>42</v>
       </c>
@@ -9291,7 +7562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>43</v>
       </c>
@@ -9383,7 +7654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>43</v>
       </c>
@@ -9475,7 +7746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>53</v>
       </c>
@@ -9565,7 +7836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>53</v>
       </c>
@@ -9657,7 +7928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>51</v>
       </c>
@@ -9749,7 +8020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>51</v>
       </c>
@@ -9841,7 +8112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>45</v>
       </c>
@@ -9933,7 +8204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>45</v>
       </c>
@@ -10025,7 +8296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>35</v>
       </c>
@@ -10117,7 +8388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>35</v>
       </c>
@@ -10209,7 +8480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>54</v>
       </c>
@@ -10299,7 +8570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>54</v>
       </c>
@@ -10389,7 +8660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>25</v>
       </c>
@@ -10481,7 +8752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>25</v>
       </c>
@@ -10573,7 +8844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>39</v>
       </c>
@@ -10665,7 +8936,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>39</v>
       </c>
@@ -10757,7 +9028,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -10847,7 +9118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -10937,7 +9208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>42</v>
       </c>
@@ -11029,7 +9300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>42</v>
       </c>
@@ -11121,7 +9392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>43</v>
       </c>
@@ -11213,7 +9484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>43</v>
       </c>
@@ -11305,7 +9576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>53</v>
       </c>
@@ -11385,7 +9656,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>53</v>
       </c>
@@ -11465,7 +9736,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>51</v>
       </c>
@@ -11557,7 +9828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>51</v>
       </c>
@@ -11649,7 +9920,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>45</v>
       </c>
@@ -11741,7 +10012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>45</v>
       </c>
@@ -11833,7 +10104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>54</v>
       </c>
@@ -11923,7 +10194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>54</v>
       </c>
@@ -12013,7 +10284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>35</v>
       </c>
@@ -12105,7 +10376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>35</v>
       </c>
@@ -12197,7 +10468,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>35</v>
       </c>
@@ -12289,7 +10560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>35</v>
       </c>
@@ -12381,7 +10652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>25</v>
       </c>
@@ -12473,7 +10744,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="111" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>25</v>
       </c>
@@ -12565,7 +10836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>42</v>
       </c>
@@ -12657,7 +10928,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>42</v>
       </c>
@@ -12749,7 +11020,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>57</v>
       </c>
@@ -12841,7 +11112,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>57</v>
       </c>
@@ -12933,7 +11204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>53</v>
       </c>
@@ -13025,7 +11296,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>53</v>
       </c>
@@ -13117,7 +11388,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>39</v>
       </c>
@@ -13209,7 +11480,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>39</v>
       </c>
@@ -13301,7 +11572,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>43</v>
       </c>
@@ -13393,7 +11664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>43</v>
       </c>
@@ -13485,7 +11756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>41</v>
       </c>
@@ -13577,7 +11848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>41</v>
       </c>
@@ -13669,7 +11940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>51</v>
       </c>
@@ -13761,7 +12032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>51</v>
       </c>
@@ -13853,7 +12124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>45</v>
       </c>
@@ -13945,7 +12216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>45</v>
       </c>
@@ -14037,7 +12308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>58</v>
       </c>
@@ -14129,7 +12400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>58</v>
       </c>
@@ -14221,7 +12492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>54</v>
       </c>
@@ -14313,7 +12584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>54</v>
       </c>
@@ -14405,7 +12676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>60</v>
       </c>
@@ -14495,7 +12766,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>60</v>
       </c>
@@ -14585,7 +12856,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>61</v>
       </c>
@@ -14677,7 +12948,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>61</v>
       </c>
@@ -14769,7 +13040,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>57</v>
       </c>
@@ -14859,7 +13130,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>57</v>
       </c>
@@ -14949,7 +13220,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>63</v>
       </c>
@@ -15039,7 +13310,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>64</v>
       </c>
@@ -15129,7 +13400,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>25</v>
       </c>
@@ -15219,7 +13490,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>25</v>
       </c>
@@ -15309,7 +13580,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>39</v>
       </c>
@@ -15399,7 +13670,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>39</v>
       </c>
@@ -15489,7 +13760,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>42</v>
       </c>
@@ -15579,7 +13850,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>42</v>
       </c>
@@ -15669,7 +13940,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>45</v>
       </c>
@@ -15759,7 +14030,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>45</v>
       </c>
@@ -15849,7 +14120,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>35</v>
       </c>
@@ -15941,7 +14212,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>35</v>
       </c>
@@ -16033,7 +14304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>41</v>
       </c>
@@ -16125,7 +14396,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>41</v>
       </c>
@@ -16217,7 +14488,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>53</v>
       </c>
@@ -16309,7 +14580,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>53</v>
       </c>
@@ -16401,7 +14672,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>58</v>
       </c>
@@ -16491,7 +14762,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>58</v>
       </c>
@@ -16581,7 +14852,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>65</v>
       </c>
@@ -16671,7 +14942,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>65</v>
       </c>
@@ -16761,7 +15032,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>54</v>
       </c>
@@ -16851,7 +15122,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>54</v>
       </c>
@@ -16941,7 +15212,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>51</v>
       </c>
@@ -17031,7 +15302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>51</v>
       </c>
@@ -17121,7 +15392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>43</v>
       </c>
@@ -17213,7 +15484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>43</v>
       </c>
@@ -17305,7 +15576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>25</v>
       </c>
@@ -17397,7 +15668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>25</v>
       </c>
@@ -17489,7 +15760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>41</v>
       </c>
@@ -17581,7 +15852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>41</v>
       </c>
@@ -17673,7 +15944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>45</v>
       </c>
@@ -17765,7 +16036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>45</v>
       </c>
@@ -17857,7 +16128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>44</v>
       </c>
@@ -17949,7 +16220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>44</v>
       </c>
@@ -18041,7 +16312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>39</v>
       </c>
@@ -18133,7 +16404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>39</v>
       </c>
@@ -18225,7 +16496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>35</v>
       </c>
@@ -18317,7 +16588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>35</v>
       </c>
@@ -18409,7 +16680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>25</v>
       </c>
@@ -18501,7 +16772,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>25</v>
       </c>
@@ -18593,7 +16864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>45</v>
       </c>
@@ -18685,7 +16956,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>45</v>
       </c>
@@ -18777,7 +17048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>42</v>
       </c>
@@ -18869,7 +17140,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>42</v>
       </c>
@@ -18961,7 +17232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>41</v>
       </c>
@@ -19053,7 +17324,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>41</v>
       </c>
@@ -19145,7 +17416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>44</v>
       </c>
@@ -19237,7 +17508,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>44</v>
       </c>
@@ -19329,7 +17600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>39</v>
       </c>
@@ -19421,7 +17692,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>39</v>
       </c>
@@ -19513,7 +17784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>35</v>
       </c>
@@ -19605,7 +17876,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>35</v>
       </c>
@@ -19697,7 +17968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>37</v>
       </c>
@@ -19789,7 +18060,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>37</v>
       </c>
@@ -19881,7 +18152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>25</v>
       </c>
@@ -19973,7 +18244,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>25</v>
       </c>
@@ -20065,7 +18336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>45</v>
       </c>
@@ -20157,7 +18428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>45</v>
       </c>
@@ -20249,7 +18520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>42</v>
       </c>
@@ -20341,7 +18612,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>42</v>
       </c>
@@ -20433,7 +18704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>41</v>
       </c>
@@ -20525,7 +18796,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>41</v>
       </c>
@@ -20617,7 +18888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>44</v>
       </c>
@@ -20709,7 +18980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>44</v>
       </c>
@@ -20801,7 +19072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>39</v>
       </c>
@@ -20893,7 +19164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>39</v>
       </c>
@@ -20985,7 +19256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>35</v>
       </c>
@@ -21077,7 +19348,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>35</v>
       </c>
@@ -21169,7 +19440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>37</v>
       </c>
@@ -21261,7 +19532,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>37</v>
       </c>
@@ -21353,7 +19624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>39</v>
       </c>
@@ -21445,7 +19716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>39</v>
       </c>
@@ -21537,7 +19808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>41</v>
       </c>
@@ -21629,7 +19900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>41</v>
       </c>
@@ -21721,7 +19992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>42</v>
       </c>
@@ -21813,7 +20084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>42</v>
       </c>
@@ -21905,7 +20176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>25</v>
       </c>
@@ -21997,7 +20268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>25</v>
       </c>
@@ -22089,7 +20360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>45</v>
       </c>
@@ -22181,7 +20452,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>45</v>
       </c>
@@ -22273,7 +20544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>35</v>
       </c>
@@ -22365,7 +20636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>35</v>
       </c>
@@ -22457,7 +20728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>44</v>
       </c>
@@ -22549,7 +20820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>44</v>
       </c>
@@ -22641,7 +20912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>39</v>
       </c>
@@ -22733,7 +21004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>39</v>
       </c>
@@ -22825,7 +21096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>41</v>
       </c>
@@ -22917,7 +21188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>41</v>
       </c>
@@ -23009,7 +21280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>42</v>
       </c>
@@ -23101,7 +21372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>42</v>
       </c>
@@ -23193,7 +21464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>45</v>
       </c>
@@ -23285,7 +21556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>45</v>
       </c>
@@ -23377,7 +21648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>53</v>
       </c>
@@ -23469,7 +21740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>53</v>
       </c>
@@ -23561,7 +21832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>39</v>
       </c>
@@ -23653,7 +21924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>39</v>
       </c>
@@ -23745,7 +22016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>41</v>
       </c>
@@ -23837,7 +22108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>41</v>
       </c>
@@ -23929,7 +22200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>25</v>
       </c>
@@ -24021,7 +22292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>25</v>
       </c>
@@ -24113,7 +22384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>45</v>
       </c>
@@ -24205,7 +22476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>45</v>
       </c>
@@ -24297,7 +22568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>35</v>
       </c>
@@ -24389,7 +22660,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>35</v>
       </c>
@@ -24481,7 +22752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>53</v>
       </c>
@@ -24573,7 +22844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>53</v>
       </c>
@@ -24665,7 +22936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>54</v>
       </c>
@@ -24757,7 +23028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>54</v>
       </c>
@@ -24849,7 +23120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>41</v>
       </c>
@@ -24941,7 +23212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>41</v>
       </c>
@@ -25033,7 +23304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>25</v>
       </c>
@@ -25125,7 +23396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>25</v>
       </c>
@@ -25217,7 +23488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>39</v>
       </c>
@@ -25309,7 +23580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>39</v>
       </c>
@@ -25401,7 +23672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>42</v>
       </c>
@@ -25493,7 +23764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>42</v>
       </c>
@@ -25585,7 +23856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>35</v>
       </c>
@@ -25677,7 +23948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>35</v>
       </c>
@@ -25769,7 +24040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>45</v>
       </c>
@@ -25861,7 +24132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>45</v>
       </c>
@@ -25953,7 +24224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>53</v>
       </c>
@@ -26045,7 +24316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>53</v>
       </c>
@@ -26137,7 +24408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>54</v>
       </c>
@@ -26229,7 +24500,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>54</v>
       </c>
@@ -26321,7 +24592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>57</v>
       </c>
@@ -26413,7 +24684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>57</v>
       </c>
@@ -26505,7 +24776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>41</v>
       </c>
@@ -26597,7 +24868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>41</v>
       </c>
@@ -26689,7 +24960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>25</v>
       </c>
@@ -26781,7 +25052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>25</v>
       </c>
@@ -26871,7 +25142,7 @@
       </c>
       <c r="AD267" s="6"/>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>39</v>
       </c>
@@ -26963,7 +25234,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>39</v>
       </c>
@@ -27055,7 +25326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>42</v>
       </c>
@@ -27147,7 +25418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>42</v>
       </c>
@@ -27239,7 +25510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>53</v>
       </c>
@@ -27331,7 +25602,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>53</v>
       </c>
@@ -27423,7 +25694,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>54</v>
       </c>
@@ -27515,7 +25786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>54</v>
       </c>
@@ -27607,7 +25878,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>57</v>
       </c>
@@ -27699,7 +25970,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>57</v>
       </c>
@@ -27791,7 +26062,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>41</v>
       </c>
@@ -27883,7 +26154,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>41</v>
       </c>
@@ -27975,7 +26246,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>25</v>
       </c>
@@ -28067,7 +26338,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>25</v>
       </c>
@@ -28159,7 +26430,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>39</v>
       </c>
@@ -28251,7 +26522,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>39</v>
       </c>
@@ -28343,7 +26614,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>42</v>
       </c>
@@ -28435,7 +26706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>42</v>
       </c>
@@ -28527,7 +26798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>45</v>
       </c>
@@ -28619,7 +26890,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>45</v>
       </c>
@@ -28711,7 +26982,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>57</v>
       </c>
@@ -28803,7 +27074,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>57</v>
       </c>
@@ -28895,7 +27166,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>41</v>
       </c>
@@ -28987,7 +27258,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>41</v>
       </c>
@@ -29079,7 +27350,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>25</v>
       </c>
@@ -29171,7 +27442,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>25</v>
       </c>
@@ -29263,7 +27534,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>39</v>
       </c>
@@ -29355,7 +27626,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>39</v>
       </c>
@@ -29447,7 +27718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>35</v>
       </c>
@@ -29539,7 +27810,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>35</v>
       </c>
@@ -29631,7 +27902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>42</v>
       </c>
@@ -29723,7 +27994,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>42</v>
       </c>
@@ -29815,420 +28086,419 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B300" s="1"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B301" s="1"/>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B302" s="1"/>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B305" s="1"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B306" s="1"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B307" s="1"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B308" s="1"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" s="1"/>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B311" s="1"/>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" s="1"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B313" s="1"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" s="1"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B315" s="1"/>
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="1"/>
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" s="1"/>
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" s="1"/>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B319" s="1"/>
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" s="1"/>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" s="1"/>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B322" s="1"/>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="1"/>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B326" s="1"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" s="1"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" s="1"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="1"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" s="1"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" s="1"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B334" s="1"/>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="1"/>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="1"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337" s="1"/>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B338" s="1"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" s="1"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" s="1"/>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" s="1"/>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="1"/>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B344" s="1"/>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B345" s="1"/>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" s="1"/>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B347" s="1"/>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" s="1"/>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B349" s="1"/>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="1"/>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" s="1"/>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" s="1"/>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B353" s="1"/>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" s="1"/>
       <c r="D354" s="1"/>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B355" s="1"/>
       <c r="D355" s="1"/>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356" s="1"/>
       <c r="D356" s="1"/>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="1"/>
       <c r="D357" s="1"/>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B358" s="1"/>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B359" s="1"/>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360" s="1"/>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" s="1"/>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" s="1"/>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" s="1"/>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="1"/>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" s="1"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B366" s="1"/>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B367" s="1"/>
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368" s="1"/>
       <c r="D368" s="1"/>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B369" s="1"/>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B370" s="1"/>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="1"/>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B372" s="1"/>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B373" s="1"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B374" s="1"/>
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B375" s="1"/>
       <c r="D375" s="1"/>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B376" s="1"/>
       <c r="D376" s="1"/>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B377" s="1"/>
       <c r="D377" s="1"/>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="1"/>
       <c r="D378" s="1"/>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B379" s="1"/>
       <c r="D379" s="1"/>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B380" s="1"/>
       <c r="D380" s="1"/>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B381" s="1"/>
       <c r="D381" s="1"/>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B382" s="1"/>
       <c r="D382" s="1"/>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B383" s="1"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B384" s="1"/>
       <c r="D384" s="1"/>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="1"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" s="1"/>
       <c r="D386" s="1"/>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387" s="1"/>
       <c r="D387" s="1"/>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" s="1"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B389" s="1"/>
       <c r="D389" s="1"/>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" s="1"/>
       <c r="D390" s="1"/>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B391" s="1"/>
       <c r="D391" s="1"/>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="1"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395" s="1"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" s="1"/>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397" s="1"/>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398" s="1"/>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="1"/>
       <c r="D399" s="1"/>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400" s="1"/>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" s="1"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D402" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>